--- a/biology/Microbiologie/Retortamonadida/Retortamonadida.xlsx
+++ b/biology/Microbiologie/Retortamonadida/Retortamonadida.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Rétortamonades ou Rétortamonadines sont des êtres vivants unicellulaires pourvus d'un noyau. Ils ne possèdent ni mitochondrie, ni plaste, ni appareil de Golgi, par pertes secondaires. Ils sont parasites ou commensaux du tube digestif d'animaux comme les insectes, les sangsues, les mammifères et les oiseaux.
 </t>
@@ -511,7 +523,9 @@
           <t>Liste des genres de Rétortamonadines</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les rétortamonades regroupent actuellement deux genres :
 Chilomastix A. Alexeieff, 1910
